--- a/xlsx/country_comparison/problem_share.xlsx
+++ b/xlsx/country_comparison/problem_share.xlsx
@@ -395,19 +395,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.740740740740741</v>
+        <v>0.774193548387097</v>
       </c>
       <c r="C2" t="n">
-        <v>0.653846153846154</v>
+        <v>0.718954248366013</v>
       </c>
       <c r="D2" t="n">
-        <v>0.85</v>
+        <v>0.872727272727273</v>
       </c>
       <c r="E2" t="n">
-        <v>0.714285714285714</v>
+        <v>0.657142857142857</v>
       </c>
       <c r="F2" t="n">
-        <v>0.638888888888889</v>
+        <v>0.642727272727273</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8</v>
+        <v>0.834862385321101</v>
       </c>
       <c r="C3" t="n">
-        <v>0.80952380952381</v>
+        <v>0.781456953642384</v>
       </c>
       <c r="D3" t="n">
-        <v>0.814814814814815</v>
+        <v>0.9</v>
       </c>
       <c r="E3" t="n">
-        <v>0.716666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.676056338028169</v>
+        <v>0.674336283185841</v>
       </c>
     </row>
     <row r="4">
@@ -435,19 +435,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.695652173913043</v>
+        <v>0.785046728971963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.818181818181818</v>
+        <v>0.795918367346939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.857142857142857</v>
+        <v>0.899082568807339</v>
       </c>
       <c r="E4" t="n">
-        <v>0.611111111111111</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.68503937007874</v>
+        <v>0.639819909954978</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/problem_share.xlsx
+++ b/xlsx/country_comparison/problem_share.xlsx
@@ -395,19 +395,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.774193548387097</v>
+        <v>0.654690618762475</v>
       </c>
       <c r="C2" t="n">
-        <v>0.718954248366013</v>
+        <v>0.696400625978091</v>
       </c>
       <c r="D2" t="n">
-        <v>0.872727272727273</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="E2" t="n">
-        <v>0.657142857142857</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="F2" t="n">
-        <v>0.642727272727273</v>
+        <v>0.643600180913614</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.834862385321101</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="C3" t="n">
-        <v>0.781456953642384</v>
+        <v>0.808970099667774</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9</v>
+        <v>0.846625766871166</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6</v>
+        <v>0.757633587786259</v>
       </c>
       <c r="F3" t="n">
-        <v>0.674336283185841</v>
+        <v>0.675473359753413</v>
       </c>
     </row>
     <row r="4">
@@ -435,19 +435,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.785046728971963</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="C4" t="n">
-        <v>0.795918367346939</v>
+        <v>0.796099290780142</v>
       </c>
       <c r="D4" t="n">
-        <v>0.899082568807339</v>
+        <v>0.872689938398357</v>
       </c>
       <c r="E4" t="n">
-        <v>0.647058823529412</v>
+        <v>0.648230088495575</v>
       </c>
       <c r="F4" t="n">
-        <v>0.639819909954978</v>
+        <v>0.640974639482844</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/problem_share.xlsx
+++ b/xlsx/country_comparison/problem_share.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Income inequality in [Country]</t>
@@ -389,65 +392,77 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.654690618762475</v>
+        <v>0.642992952760329</v>
       </c>
       <c r="C2" t="n">
-        <v>0.696400625978091</v>
+        <v>0.697294625159644</v>
       </c>
       <c r="D2" t="n">
-        <v>0.819672131147541</v>
+        <v>0.672181668559304</v>
       </c>
       <c r="E2" t="n">
-        <v>0.660377358490566</v>
+        <v>0.695399437759704</v>
       </c>
       <c r="F2" t="n">
-        <v>0.643600180913614</v>
+        <v>0.805237267420011</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.683377857431122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.826086956521739</v>
+        <v>0.658981293234765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.808970099667774</v>
+        <v>0.806217918755461</v>
       </c>
       <c r="D3" t="n">
-        <v>0.846625766871166</v>
+        <v>0.825585225374941</v>
       </c>
       <c r="E3" t="n">
-        <v>0.757633587786259</v>
+        <v>0.806003453093645</v>
       </c>
       <c r="F3" t="n">
-        <v>0.675473359753413</v>
+        <v>0.830412897359068</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.775134785511073</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.760869565217391</v>
+        <v>0.642662722466947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.796099290780142</v>
+        <v>0.770115959024298</v>
       </c>
       <c r="D4" t="n">
-        <v>0.872689938398357</v>
+        <v>0.771887187001765</v>
       </c>
       <c r="E4" t="n">
-        <v>0.648230088495575</v>
+        <v>0.79221346582366</v>
       </c>
       <c r="F4" t="n">
-        <v>0.640974639482844</v>
+        <v>0.865085832362628</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.701946560680909</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/problem_share.xlsx
+++ b/xlsx/country_comparison/problem_share.xlsx
@@ -401,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.642992952760329</v>
+        <v>0.647790766282932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.697294625159644</v>
+        <v>0.697724937953369</v>
       </c>
       <c r="D2" t="n">
-        <v>0.672181668559304</v>
+        <v>0.668149204593038</v>
       </c>
       <c r="E2" t="n">
-        <v>0.695399437759704</v>
+        <v>0.683490776161577</v>
       </c>
       <c r="F2" t="n">
-        <v>0.805237267420011</v>
+        <v>0.803974010465359</v>
       </c>
       <c r="G2" t="n">
-        <v>0.683377857431122</v>
+        <v>0.679981777186819</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.658981293234765</v>
+        <v>0.664464443753501</v>
       </c>
       <c r="C3" t="n">
-        <v>0.806217918755461</v>
+        <v>0.803052948838167</v>
       </c>
       <c r="D3" t="n">
-        <v>0.825585225374941</v>
+        <v>0.831219055803388</v>
       </c>
       <c r="E3" t="n">
-        <v>0.806003453093645</v>
+        <v>0.799915514401793</v>
       </c>
       <c r="F3" t="n">
-        <v>0.830412897359068</v>
+        <v>0.830103418672503</v>
       </c>
       <c r="G3" t="n">
-        <v>0.775134785511073</v>
+        <v>0.761749504964001</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.642662722466947</v>
+        <v>0.645710561931013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.770115959024298</v>
+        <v>0.773346661333378</v>
       </c>
       <c r="D4" t="n">
-        <v>0.771887187001765</v>
+        <v>0.768805902049777</v>
       </c>
       <c r="E4" t="n">
-        <v>0.79221346582366</v>
+        <v>0.796567185114283</v>
       </c>
       <c r="F4" t="n">
-        <v>0.865085832362628</v>
+        <v>0.867561623069397</v>
       </c>
       <c r="G4" t="n">
-        <v>0.701946560680909</v>
+        <v>0.686693801242629</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/problem_share.xlsx
+++ b/xlsx/country_comparison/problem_share.xlsx
@@ -401,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.647790766282932</v>
+        <v>0.65434195987189</v>
       </c>
       <c r="C2" t="n">
-        <v>0.697724937953369</v>
+        <v>0.69635471826227</v>
       </c>
       <c r="D2" t="n">
-        <v>0.668149204593038</v>
+        <v>0.667961505503197</v>
       </c>
       <c r="E2" t="n">
-        <v>0.683490776161577</v>
+        <v>0.683443023646985</v>
       </c>
       <c r="F2" t="n">
-        <v>0.803974010465359</v>
+        <v>0.797277877170733</v>
       </c>
       <c r="G2" t="n">
-        <v>0.679981777186819</v>
+        <v>0.679950370881897</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.664464443753501</v>
+        <v>0.684162620459082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.803052948838167</v>
+        <v>0.804404334147551</v>
       </c>
       <c r="D3" t="n">
-        <v>0.831219055803388</v>
+        <v>0.831177027991989</v>
       </c>
       <c r="E3" t="n">
-        <v>0.799915514401793</v>
+        <v>0.799918301702684</v>
       </c>
       <c r="F3" t="n">
-        <v>0.830103418672503</v>
+        <v>0.821474553095244</v>
       </c>
       <c r="G3" t="n">
-        <v>0.761749504964001</v>
+        <v>0.761729479364517</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.645710561931013</v>
+        <v>0.657026216062907</v>
       </c>
       <c r="C4" t="n">
-        <v>0.773346661333378</v>
+        <v>0.771244078567676</v>
       </c>
       <c r="D4" t="n">
-        <v>0.768805902049777</v>
+        <v>0.768740385984856</v>
       </c>
       <c r="E4" t="n">
-        <v>0.796567185114283</v>
+        <v>0.796557665013319</v>
       </c>
       <c r="F4" t="n">
-        <v>0.867561623069397</v>
+        <v>0.842349767203074</v>
       </c>
       <c r="G4" t="n">
-        <v>0.686693801242629</v>
+        <v>0.686652468079716</v>
       </c>
     </row>
   </sheetData>
